--- a/analysis/20-40.xlsx
+++ b/analysis/20-40.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi A. Furukawa\Dropbox\AAAAA\SYSTEMATIC REVIEWS\2017-06-30 GRISELDA\2019-06-XX fixed vs flexible regimens\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tshkf\Dropbox\AAAAA\SYSTEMATIC REVIEWS\2017-06-30 GRISELDA\2019-10-27 fixed vs flexible regimens\analysis3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33688413-9700-45F0-8253-6F2FADF56E2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B2E366-4FB9-49F3-B6FE-5795EF904938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="14016" xr2:uid="{AC187675-37B5-474A-8450-125E31DB076A}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{AC187675-37B5-474A-8450-125E31DB076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="118">
   <si>
     <t>StudyID</t>
   </si>
@@ -379,6 +379,14 @@
   </si>
   <si>
     <t>SSRI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cunningham1997 (VEN XR 208 - FDA) XR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Higuchi2011 (PCR112810, NCT00866294) CR</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -386,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,16 +410,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -419,18 +440,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -743,15 +786,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7A5853-2FF2-432C-8B7B-6F3D6E421E3A}">
-  <dimension ref="A1:AU31"/>
+  <dimension ref="A1:AU32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="17" max="24" width="8.6640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -800,28 +847,28 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Y1" t="s">
@@ -894,7 +941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -938,33 +985,33 @@
         <v>8.73</v>
       </c>
       <c r="O2">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P2">
         <v>27</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>64.5</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>12</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>2</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>62.5</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>-9.6</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <v>8.94</v>
       </c>
-      <c r="W2">
-        <v>23.5</v>
-      </c>
-      <c r="X2">
+      <c r="W2" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="X2" s="1">
         <v>11</v>
       </c>
       <c r="Y2" t="s">
@@ -1037,7 +1084,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -1086,28 +1133,28 @@
       <c r="P3">
         <v>63</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>77</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>7.5</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>2</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>77</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>-12.1</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>8.69</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>33.5</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>31.5</v>
       </c>
       <c r="Y3" t="s">
@@ -1180,7 +1227,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -1224,33 +1271,33 @@
         <v>8.91</v>
       </c>
       <c r="O4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P4">
         <v>25</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>64.5</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>12</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>2</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>62.5</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>-9.6</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <v>8.94</v>
       </c>
-      <c r="W4">
-        <v>23.5</v>
-      </c>
-      <c r="X4">
+      <c r="W4" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="X4" s="1">
         <v>11</v>
       </c>
       <c r="Y4" t="s">
@@ -1323,7 +1370,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1372,28 +1419,28 @@
       <c r="P5">
         <v>78</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>77</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>7.5</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>2</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>77</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>-12.1</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>8.69</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>33.5</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="1">
         <v>31.5</v>
       </c>
       <c r="Y5" t="s">
@@ -1466,7 +1513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1515,28 +1562,28 @@
       <c r="P6">
         <v>36</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>155</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>24</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="1">
         <v>151</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="1">
         <v>-10</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="1">
         <v>11.06</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="1">
         <v>48</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="1">
         <v>26</v>
       </c>
       <c r="Y6" t="s">
@@ -1609,7 +1656,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1658,28 +1705,28 @@
       <c r="P7">
         <v>65</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>141</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>39</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>7</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>130</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <v>-12.1</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="1">
         <v>7.98</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>69</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="1">
         <v>40</v>
       </c>
       <c r="Y7" t="s">
@@ -1752,7 +1799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1801,28 +1848,28 @@
       <c r="P8">
         <v>56</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>137</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>32</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>6</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="1">
         <v>126</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="1">
         <v>-11.9</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="1">
         <v>7.86</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="1">
         <v>64</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="1">
         <v>48</v>
       </c>
       <c r="Y8" t="s">
@@ -1895,7 +1942,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1944,28 +1991,28 @@
       <c r="P9">
         <v>24</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>135</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>26</v>
       </c>
-      <c r="S9">
-        <v>8</v>
-      </c>
-      <c r="T9">
+      <c r="S9" s="1">
+        <v>8</v>
+      </c>
+      <c r="T9" s="1">
         <v>134</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="1">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="1">
         <v>9.26</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="1">
         <v>50</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="1">
         <v>26</v>
       </c>
       <c r="Y9" t="s">
@@ -2038,7 +2085,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -2087,28 +2134,28 @@
       <c r="P10" t="s">
         <v>48</v>
       </c>
-      <c r="Q10">
-        <v>135</v>
-      </c>
-      <c r="R10">
-        <v>30</v>
-      </c>
-      <c r="S10">
-        <v>4</v>
-      </c>
-      <c r="T10">
-        <v>132</v>
-      </c>
-      <c r="U10">
+      <c r="Q10" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="R10" s="1">
+        <v>15</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2</v>
+      </c>
+      <c r="T10" s="1">
+        <v>66</v>
+      </c>
+      <c r="U10" s="1">
         <v>-11.35</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="1">
         <v>9.65</v>
       </c>
-      <c r="W10">
-        <v>54</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="W10" s="1">
+        <v>27</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Y10" t="s">
@@ -2181,7 +2228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -2230,28 +2277,28 @@
       <c r="P11">
         <v>62</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>157</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>40</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>7</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="1">
         <v>153</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="1">
         <v>-13.75</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="1">
         <v>8.5399999999999991</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="1">
         <v>78</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="1">
         <v>54</v>
       </c>
       <c r="Y11" t="s">
@@ -2324,7 +2371,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -2373,28 +2420,28 @@
       <c r="P12">
         <v>23</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="1">
         <v>138</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>68</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="1">
         <v>1</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="1">
         <v>122</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>-13</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="1">
         <v>3.31</v>
       </c>
-      <c r="W12">
-        <v>59</v>
-      </c>
-      <c r="X12">
+      <c r="W12" s="1">
+        <v>59</v>
+      </c>
+      <c r="X12" s="1">
         <v>38</v>
       </c>
       <c r="Y12" t="s">
@@ -2467,7 +2514,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -2516,28 +2563,28 @@
       <c r="P13">
         <v>18</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>65</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>29</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>4</v>
       </c>
-      <c r="T13">
-        <v>60</v>
-      </c>
-      <c r="U13">
+      <c r="T13" s="1">
+        <v>60</v>
+      </c>
+      <c r="U13" s="1">
         <v>12.3</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="1">
         <v>8.6</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="1">
         <v>18</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="1">
         <v>10</v>
       </c>
       <c r="Y13" t="s">
@@ -2610,7 +2657,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2659,28 +2706,28 @@
       <c r="P14">
         <v>57</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <v>128</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>52</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <v>15</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="1">
         <v>128</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <v>-8.64</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="1">
         <v>8.4499999999999993</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="1">
         <v>43</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="1">
         <v>34</v>
       </c>
       <c r="Y14" t="s">
@@ -2753,7 +2800,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2802,28 +2849,28 @@
       <c r="P15">
         <v>66</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>150</v>
       </c>
-      <c r="R15">
-        <v>60</v>
-      </c>
-      <c r="S15">
+      <c r="R15" s="1">
+        <v>60</v>
+      </c>
+      <c r="S15" s="1">
         <v>12</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="1">
         <v>143</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>-11.1</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="1">
         <v>8.4499999999999993</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="1">
         <v>63</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="1">
         <v>54</v>
       </c>
       <c r="Y15" t="s">
@@ -2896,7 +2943,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -2945,28 +2992,28 @@
       <c r="P16">
         <v>152</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>257</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>40</v>
       </c>
-      <c r="S16">
-        <v>8</v>
-      </c>
-      <c r="T16">
+      <c r="S16" s="1">
+        <v>8</v>
+      </c>
+      <c r="T16" s="1">
         <v>247</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="1">
         <v>-11.5</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="1">
         <v>8.4499999999999993</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="1">
         <v>136</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="1">
         <v>124</v>
       </c>
       <c r="Y16" t="s">
@@ -3039,7 +3086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -3088,28 +3135,28 @@
       <c r="P17">
         <v>109</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>254</v>
       </c>
-      <c r="R17">
-        <v>58</v>
-      </c>
-      <c r="S17">
+      <c r="R17" s="1">
+        <v>58</v>
+      </c>
+      <c r="S17" s="1">
         <v>10</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="1">
         <v>239</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="1">
         <v>-10.1</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="1">
         <v>7.27</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="1">
         <v>108</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="1">
         <v>101</v>
       </c>
       <c r="Y17" t="s">
@@ -3182,7 +3229,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -3231,28 +3278,28 @@
       <c r="P18">
         <v>37</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <v>166</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="1">
         <v>41</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="1">
         <v>9</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="1">
         <v>158</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="1">
         <v>17.3</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="1">
         <v>7.92</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="1">
         <v>61</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="1">
         <v>22</v>
       </c>
       <c r="Y18" t="s">
@@ -3325,7 +3372,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -3374,28 +3421,28 @@
       <c r="P19">
         <v>49</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <v>146</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="1">
         <v>15</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="1">
         <v>5</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="1">
         <v>145</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="1">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="1">
         <v>5.8</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="1">
         <v>56</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="1">
         <v>32</v>
       </c>
       <c r="Y19" t="s">
@@ -3468,7 +3515,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -3517,29 +3564,29 @@
       <c r="P20">
         <v>30</v>
       </c>
-      <c r="Q20">
-        <v>172</v>
-      </c>
-      <c r="R20">
-        <v>33</v>
-      </c>
-      <c r="S20">
-        <v>12</v>
-      </c>
-      <c r="T20">
-        <v>171</v>
-      </c>
-      <c r="U20">
+      <c r="Q20" s="1">
+        <v>86</v>
+      </c>
+      <c r="R20" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="S20" s="1">
+        <v>6</v>
+      </c>
+      <c r="T20" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="U20" s="1">
         <v>-10.4</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="1">
         <v>8.11</v>
       </c>
-      <c r="W20">
-        <v>78</v>
-      </c>
-      <c r="X20">
-        <v>40</v>
+      <c r="W20" s="1">
+        <v>39</v>
+      </c>
+      <c r="X20" s="1">
+        <v>20</v>
       </c>
       <c r="Y20" t="s">
         <v>58</v>
@@ -3611,15 +3658,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B21">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C21">
-        <v>36.349999999999994</v>
+        <v>36.15</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -3637,58 +3684,58 @@
         <v>48</v>
       </c>
       <c r="I21">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
         <v>13</v>
       </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
       <c r="L21">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="M21">
-        <v>15.6</v>
+        <v>-12.8</v>
       </c>
       <c r="N21">
-        <v>10</v>
+        <v>7.67</v>
       </c>
       <c r="O21">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="P21">
-        <v>35</v>
-      </c>
-      <c r="Q21">
-        <v>62</v>
-      </c>
-      <c r="R21">
-        <v>10.5</v>
-      </c>
-      <c r="S21">
-        <v>1.5</v>
-      </c>
-      <c r="T21">
-        <v>62</v>
-      </c>
-      <c r="U21">
-        <v>18.3</v>
-      </c>
-      <c r="V21">
-        <v>10.1</v>
-      </c>
-      <c r="W21">
-        <v>22.5</v>
-      </c>
-      <c r="X21">
-        <v>12.5</v>
+        <v>56</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>86</v>
+      </c>
+      <c r="R21" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="S21" s="1">
+        <v>6</v>
+      </c>
+      <c r="T21" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="U21" s="1">
+        <v>-10.4</v>
+      </c>
+      <c r="V21" s="1">
+        <v>8.11</v>
+      </c>
+      <c r="W21" s="1">
+        <v>39</v>
+      </c>
+      <c r="X21" s="1">
+        <v>20</v>
       </c>
       <c r="Y21" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Z21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA21" t="s">
         <v>50</v>
@@ -3703,19 +3750,19 @@
         <v>53</v>
       </c>
       <c r="AE21" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="AF21" t="s">
         <v>55</v>
       </c>
       <c r="AG21" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AH21" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AI21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="s">
         <v>58</v>
@@ -3724,7 +3771,7 @@
         <v>8</v>
       </c>
       <c r="AL21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AM21" t="s">
         <v>59</v>
@@ -3739,10 +3786,10 @@
         <v>60</v>
       </c>
       <c r="AQ21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AR21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS21" t="s">
         <v>62</v>
@@ -3751,90 +3798,90 @@
         <v>63</v>
       </c>
       <c r="AU21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B22">
-        <v>1994</v>
+        <v>2011</v>
       </c>
       <c r="C22">
-        <v>45.7</v>
-      </c>
-      <c r="D22">
-        <v>0.67399999999999993</v>
+        <v>36.349999999999994</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
       </c>
       <c r="E22" t="s">
         <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>62</v>
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
       </c>
       <c r="I22">
-        <v>99</v>
-      </c>
-      <c r="J22" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" t="s">
-        <v>48</v>
+        <v>121</v>
+      </c>
+      <c r="J22">
+        <v>13</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="M22">
-        <v>-15.4</v>
+        <v>15.6</v>
       </c>
       <c r="N22">
-        <v>9.9600000000000009</v>
+        <v>10</v>
       </c>
       <c r="O22">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="P22">
-        <v>33</v>
-      </c>
-      <c r="Q22">
-        <v>101</v>
-      </c>
-      <c r="R22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S22" t="s">
-        <v>48</v>
-      </c>
-      <c r="T22">
-        <v>90</v>
-      </c>
-      <c r="U22">
-        <v>-12.1</v>
-      </c>
-      <c r="V22">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="W22">
-        <v>40</v>
-      </c>
-      <c r="X22">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>62</v>
+      </c>
+      <c r="R22" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T22" s="1">
+        <v>62</v>
+      </c>
+      <c r="U22" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="V22" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="W22" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="X22" s="1">
+        <v>12.5</v>
       </c>
       <c r="Y22" t="s">
         <v>49</v>
       </c>
       <c r="Z22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA22" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AB22" t="s">
         <v>51</v>
@@ -3846,10 +3893,10 @@
         <v>53</v>
       </c>
       <c r="AE22" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="AF22" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="AG22" t="s">
         <v>56</v>
@@ -3864,16 +3911,16 @@
         <v>58</v>
       </c>
       <c r="AK22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL22" t="s">
         <v>58</v>
       </c>
       <c r="AM22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AO22" t="s">
         <v>60</v>
@@ -3882,33 +3929,33 @@
         <v>60</v>
       </c>
       <c r="AQ22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AR22" t="s">
         <v>61</v>
       </c>
       <c r="AS22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT22" t="e">
-        <v>#VALUE!</v>
+        <v>62</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>63</v>
       </c>
       <c r="AU22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B23">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <v>45.7</v>
       </c>
       <c r="D23">
-        <v>0.66549999999999998</v>
+        <v>0.67399999999999993</v>
       </c>
       <c r="E23" t="s">
         <v>115</v>
@@ -3917,58 +3964,58 @@
         <v>107</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I23">
-        <v>111</v>
-      </c>
-      <c r="J23">
-        <v>32</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
       </c>
       <c r="L23">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="M23">
-        <v>-10.53</v>
+        <v>-15.4</v>
       </c>
       <c r="N23">
-        <v>7.52</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="O23">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P23">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>101</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T23" s="1">
+        <v>90</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-12.1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="W23" s="1">
+        <v>40</v>
+      </c>
+      <c r="X23" s="1">
         <v>27</v>
-      </c>
-      <c r="Q23">
-        <v>116</v>
-      </c>
-      <c r="R23">
-        <v>32</v>
-      </c>
-      <c r="S23">
-        <v>3</v>
-      </c>
-      <c r="T23">
-        <v>116</v>
-      </c>
-      <c r="U23">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="V23">
-        <v>7.22</v>
-      </c>
-      <c r="W23">
-        <v>50</v>
-      </c>
-      <c r="X23">
-        <v>37</v>
       </c>
       <c r="Y23" t="s">
         <v>49</v>
@@ -3977,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="AA23" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s">
         <v>51</v>
@@ -3989,25 +4036,25 @@
         <v>53</v>
       </c>
       <c r="AE23" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AF23" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="AG23" t="s">
         <v>56</v>
       </c>
       <c r="AH23" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AI23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="s">
         <v>58</v>
       </c>
       <c r="AK23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL23" t="s">
         <v>58</v>
@@ -4031,27 +4078,27 @@
         <v>61</v>
       </c>
       <c r="AS23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="AT23" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AU23" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B24">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C24">
-        <v>69.8</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>0.56000000000000005</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="E24" t="s">
         <v>115</v>
@@ -4063,61 +4110,61 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I24">
-        <v>371</v>
+        <v>111</v>
       </c>
       <c r="J24">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="K24">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>360</v>
+        <v>109</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>-10.53</v>
       </c>
       <c r="N24">
-        <v>6.5</v>
+        <v>7.52</v>
       </c>
       <c r="O24">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="P24">
-        <v>51</v>
-      </c>
-      <c r="Q24">
-        <v>376</v>
-      </c>
-      <c r="R24">
-        <v>65</v>
-      </c>
-      <c r="S24">
-        <v>8</v>
-      </c>
-      <c r="T24">
-        <v>368</v>
-      </c>
-      <c r="U24">
-        <v>14.8</v>
-      </c>
-      <c r="V24">
-        <v>6.3</v>
-      </c>
-      <c r="W24">
-        <v>96</v>
-      </c>
-      <c r="X24">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>116</v>
+      </c>
+      <c r="R24" s="1">
+        <v>32</v>
+      </c>
+      <c r="S24" s="1">
+        <v>3</v>
+      </c>
+      <c r="T24" s="1">
+        <v>116</v>
+      </c>
+      <c r="U24" s="1">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="V24" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="W24" s="1">
+        <v>50</v>
+      </c>
+      <c r="X24" s="1">
+        <v>37</v>
       </c>
       <c r="Y24" t="s">
         <v>49</v>
       </c>
       <c r="Z24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA24" t="s">
         <v>66</v>
@@ -4132,7 +4179,7 @@
         <v>53</v>
       </c>
       <c r="AE24" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s">
         <v>55</v>
@@ -4144,7 +4191,7 @@
         <v>68</v>
       </c>
       <c r="AI24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="s">
         <v>58</v>
@@ -4180,21 +4227,21 @@
         <v>70</v>
       </c>
       <c r="AU24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="C25">
-        <v>37.799999999999997</v>
+        <v>69.8</v>
       </c>
       <c r="D25">
-        <v>0.63</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E25" t="s">
         <v>115</v>
@@ -4202,59 +4249,59 @@
       <c r="F25" t="s">
         <v>107</v>
       </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" t="s">
-        <v>48</v>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>82</v>
       </c>
       <c r="I25">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="J25">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>48</v>
-      </c>
-      <c r="M25" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="L25">
+        <v>360</v>
+      </c>
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>6.5</v>
       </c>
       <c r="O25">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="P25">
-        <v>12</v>
-      </c>
-      <c r="Q25">
-        <v>85</v>
-      </c>
-      <c r="R25">
-        <v>22</v>
-      </c>
-      <c r="S25">
-        <v>4</v>
-      </c>
-      <c r="T25" t="s">
-        <v>48</v>
-      </c>
-      <c r="U25" t="s">
-        <v>48</v>
-      </c>
-      <c r="V25" t="s">
-        <v>48</v>
-      </c>
-      <c r="W25">
-        <v>20</v>
-      </c>
-      <c r="X25">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>376</v>
+      </c>
+      <c r="R25" s="1">
+        <v>65</v>
+      </c>
+      <c r="S25" s="1">
+        <v>8</v>
+      </c>
+      <c r="T25" s="1">
+        <v>368</v>
+      </c>
+      <c r="U25" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="V25" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="W25" s="1">
+        <v>96</v>
+      </c>
+      <c r="X25" s="1">
+        <v>40</v>
       </c>
       <c r="Y25" t="s">
         <v>49</v>
@@ -4275,7 +4322,7 @@
         <v>53</v>
       </c>
       <c r="AE25" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AF25" t="s">
         <v>55</v>
@@ -4287,22 +4334,22 @@
         <v>68</v>
       </c>
       <c r="AI25">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AJ25" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AK25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AM25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AN25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AO25" t="s">
         <v>60</v>
@@ -4326,87 +4373,87 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="C26">
-        <v>39.4</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D26">
-        <v>0.66835350000000004</v>
+        <v>0.63</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26">
-        <v>8</v>
-      </c>
-      <c r="H26">
-        <v>128</v>
+        <v>107</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s">
+        <v>48</v>
       </c>
       <c r="I26">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J26">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K26">
-        <v>11</v>
-      </c>
-      <c r="L26">
-        <v>72</v>
-      </c>
-      <c r="M26">
-        <v>-16.93</v>
-      </c>
-      <c r="N26">
-        <v>8.2200000000000006</v>
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" t="s">
+        <v>48</v>
       </c>
       <c r="O26">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P26">
-        <v>43</v>
-      </c>
-      <c r="Q26">
-        <v>76</v>
-      </c>
-      <c r="R26">
-        <v>19</v>
-      </c>
-      <c r="S26">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>85</v>
+      </c>
+      <c r="R26" s="1">
+        <v>22</v>
+      </c>
+      <c r="S26" s="1">
         <v>4</v>
       </c>
-      <c r="T26">
-        <v>76</v>
-      </c>
-      <c r="U26">
-        <v>-14.07</v>
-      </c>
-      <c r="V26">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="W26">
-        <v>38</v>
-      </c>
-      <c r="X26">
-        <v>38</v>
+      <c r="T26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W26" s="1">
+        <v>20</v>
+      </c>
+      <c r="X26" s="1">
+        <v>7</v>
       </c>
       <c r="Y26" t="s">
         <v>49</v>
       </c>
       <c r="Z26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AB26" t="s">
         <v>51</v>
@@ -4421,25 +4468,25 @@
         <v>67</v>
       </c>
       <c r="AF26" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="AG26" t="s">
         <v>56</v>
       </c>
       <c r="AH26" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>48</v>
+        <v>68</v>
+      </c>
+      <c r="AI26">
+        <v>22</v>
       </c>
       <c r="AJ26" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AK26">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AL26" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AM26" t="s">
         <v>59</v>
@@ -4469,18 +4516,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27">
         <v>1997</v>
       </c>
       <c r="C27">
-        <v>39.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="D27">
-        <v>0.60814699999999999</v>
+        <v>0.66835350000000004</v>
       </c>
       <c r="E27" t="s">
         <v>76</v>
@@ -4492,64 +4539,64 @@
         <v>8</v>
       </c>
       <c r="H27">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I27">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="J27">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K27">
         <v>11</v>
       </c>
       <c r="L27">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="M27">
-        <v>-13.59</v>
+        <v>-16.93</v>
       </c>
       <c r="N27">
-        <v>8.4499999999999993</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="O27">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P27">
-        <v>34</v>
-      </c>
-      <c r="Q27">
-        <v>50</v>
-      </c>
-      <c r="R27">
-        <v>20.5</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>49.5</v>
-      </c>
-      <c r="U27">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="V27">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="W27">
-        <v>18</v>
-      </c>
-      <c r="X27">
-        <v>9.5</v>
+        <v>43</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>76</v>
+      </c>
+      <c r="R27" s="1">
+        <v>19</v>
+      </c>
+      <c r="S27" s="1">
+        <v>4</v>
+      </c>
+      <c r="T27" s="1">
+        <v>76</v>
+      </c>
+      <c r="U27" s="1">
+        <v>-14.07</v>
+      </c>
+      <c r="V27" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="W27" s="1">
+        <v>38</v>
+      </c>
+      <c r="X27" s="1">
+        <v>38</v>
       </c>
       <c r="Y27" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Z27">
         <v>3</v>
       </c>
       <c r="AA27" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s">
         <v>51</v>
@@ -4564,22 +4611,22 @@
         <v>67</v>
       </c>
       <c r="AF27" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AG27" t="s">
         <v>56</v>
       </c>
       <c r="AH27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI27">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>48</v>
       </c>
       <c r="AJ27" t="s">
         <v>58</v>
       </c>
       <c r="AK27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL27" t="s">
         <v>58</v>
@@ -4600,30 +4647,30 @@
         <v>59</v>
       </c>
       <c r="AR27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AS27" t="s">
         <v>62</v>
       </c>
       <c r="AT27" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AU27" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B28">
         <v>1997</v>
       </c>
       <c r="C28">
-        <v>41.349999999999994</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="D28">
-        <v>0.62626300000000001</v>
+        <v>0.60814699999999999</v>
       </c>
       <c r="E28" t="s">
         <v>76</v>
@@ -4635,54 +4682,54 @@
         <v>8</v>
       </c>
       <c r="H28">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="I28">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J28">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M28">
-        <v>-11.52</v>
+        <v>-13.59</v>
       </c>
       <c r="N28">
         <v>8.4499999999999993</v>
       </c>
       <c r="O28">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="P28">
-        <v>26</v>
-      </c>
-      <c r="Q28">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="1">
         <v>50</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>20.5</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <v>1</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="1">
         <v>49.5</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="1">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="1">
         <v>8.4499999999999993</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="1">
         <v>18</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="1">
         <v>9.5</v>
       </c>
       <c r="Y28" t="s">
@@ -4755,18 +4802,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B29">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="C29">
-        <v>45.65</v>
+        <v>41.349999999999994</v>
       </c>
       <c r="D29">
-        <v>0.69500000000000006</v>
+        <v>0.62626300000000001</v>
       </c>
       <c r="E29" t="s">
         <v>76</v>
@@ -4777,56 +4824,56 @@
       <c r="G29">
         <v>8</v>
       </c>
-      <c r="H29" t="s">
-        <v>48</v>
+      <c r="H29">
+        <v>123</v>
       </c>
       <c r="I29">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="J29">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L29">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="M29">
-        <v>-13.8</v>
+        <v>-11.52</v>
       </c>
       <c r="N29">
-        <v>7.78</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="O29">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P29">
-        <v>43</v>
-      </c>
-      <c r="Q29">
-        <v>120</v>
-      </c>
-      <c r="R29">
-        <v>13</v>
-      </c>
-      <c r="S29">
+        <v>26</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>50</v>
+      </c>
+      <c r="R29" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="S29" s="1">
         <v>1</v>
       </c>
-      <c r="T29">
-        <v>120</v>
-      </c>
-      <c r="U29">
-        <v>-12.5</v>
-      </c>
-      <c r="V29">
-        <v>7.78</v>
-      </c>
-      <c r="W29">
-        <v>60</v>
-      </c>
-      <c r="X29">
-        <v>30</v>
+      <c r="T29" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="U29" s="1">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="V29" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="W29" s="1">
+        <v>18</v>
+      </c>
+      <c r="X29" s="1">
+        <v>9.5</v>
       </c>
       <c r="Y29" t="s">
         <v>58</v>
@@ -4835,7 +4882,7 @@
         <v>3</v>
       </c>
       <c r="AA29" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AB29" t="s">
         <v>51</v>
@@ -4850,25 +4897,25 @@
         <v>67</v>
       </c>
       <c r="AF29" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="AG29" t="s">
         <v>56</v>
       </c>
       <c r="AH29" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AI29">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AK29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AM29" t="s">
         <v>59</v>
@@ -4898,18 +4945,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B30">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C30">
-        <v>42.25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
+        <v>45.65</v>
+      </c>
+      <c r="D30">
+        <v>0.69500000000000006</v>
       </c>
       <c r="E30" t="s">
         <v>76</v>
@@ -4924,52 +4971,52 @@
         <v>48</v>
       </c>
       <c r="I30">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="J30">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K30">
         <v>7</v>
       </c>
       <c r="L30">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="M30">
-        <v>-17.100000000000001</v>
+        <v>-13.8</v>
       </c>
       <c r="N30">
-        <v>9.25</v>
+        <v>7.78</v>
       </c>
       <c r="O30">
+        <v>81</v>
+      </c>
+      <c r="P30">
+        <v>43</v>
+      </c>
+      <c r="Q30" s="1">
         <v>120</v>
       </c>
-      <c r="P30">
-        <v>94</v>
-      </c>
-      <c r="Q30">
-        <v>199</v>
-      </c>
-      <c r="R30">
-        <v>32</v>
-      </c>
-      <c r="S30">
-        <v>10</v>
-      </c>
-      <c r="T30">
-        <v>197</v>
-      </c>
-      <c r="U30">
-        <v>-13.5</v>
-      </c>
-      <c r="V30">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="W30">
-        <v>91</v>
-      </c>
-      <c r="X30">
-        <v>63</v>
+      <c r="R30" s="1">
+        <v>13</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1">
+        <v>120</v>
+      </c>
+      <c r="U30" s="1">
+        <v>-12.5</v>
+      </c>
+      <c r="V30" s="1">
+        <v>7.78</v>
+      </c>
+      <c r="W30" s="1">
+        <v>60</v>
+      </c>
+      <c r="X30" s="1">
+        <v>30</v>
       </c>
       <c r="Y30" t="s">
         <v>58</v>
@@ -4978,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="AA30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s">
         <v>51</v>
@@ -4990,7 +5037,7 @@
         <v>53</v>
       </c>
       <c r="AE30" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF30" t="s">
         <v>55</v>
@@ -5002,13 +5049,13 @@
         <v>68</v>
       </c>
       <c r="AI30">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AJ30" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AK30">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AL30" t="s">
         <v>69</v>
@@ -5029,27 +5076,27 @@
         <v>59</v>
       </c>
       <c r="AR30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS30" t="s">
         <v>62</v>
       </c>
       <c r="AT30" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="AU30" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>2005</v>
       </c>
       <c r="C31">
-        <v>44.3</v>
+        <v>42.25</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
@@ -5063,56 +5110,56 @@
       <c r="G31">
         <v>8</v>
       </c>
-      <c r="H31">
-        <v>85</v>
+      <c r="H31" t="s">
+        <v>48</v>
       </c>
       <c r="I31">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J31">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="K31">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L31">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M31">
-        <v>-17</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="N31">
-        <v>10.56</v>
+        <v>9.25</v>
       </c>
       <c r="O31">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="P31">
-        <v>108</v>
-      </c>
-      <c r="Q31">
-        <v>189</v>
-      </c>
-      <c r="R31">
-        <v>43</v>
-      </c>
-      <c r="S31">
-        <v>11</v>
-      </c>
-      <c r="T31">
-        <v>186</v>
-      </c>
-      <c r="U31">
-        <v>-13.2</v>
-      </c>
-      <c r="V31">
-        <v>10.64</v>
-      </c>
-      <c r="W31">
+        <v>94</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>199</v>
+      </c>
+      <c r="R31" s="1">
+        <v>32</v>
+      </c>
+      <c r="S31" s="1">
+        <v>10</v>
+      </c>
+      <c r="T31" s="1">
+        <v>197</v>
+      </c>
+      <c r="U31" s="1">
+        <v>-13.5</v>
+      </c>
+      <c r="V31" s="1">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="W31" s="1">
         <v>91</v>
       </c>
-      <c r="X31">
-        <v>71</v>
+      <c r="X31" s="1">
+        <v>63</v>
       </c>
       <c r="Y31" t="s">
         <v>58</v>
@@ -5133,7 +5180,7 @@
         <v>53</v>
       </c>
       <c r="AE31" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s">
         <v>55</v>
@@ -5148,10 +5195,10 @@
         <v>18</v>
       </c>
       <c r="AJ31" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AK31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="s">
         <v>69</v>
@@ -5178,16 +5225,159 @@
         <v>62</v>
       </c>
       <c r="AT31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32">
+        <v>2005</v>
+      </c>
+      <c r="C32">
+        <v>44.3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>85</v>
+      </c>
+      <c r="I32">
+        <v>198</v>
+      </c>
+      <c r="J32">
+        <v>46</v>
+      </c>
+      <c r="K32">
+        <v>15</v>
+      </c>
+      <c r="L32">
+        <v>193</v>
+      </c>
+      <c r="M32">
+        <v>-17</v>
+      </c>
+      <c r="N32">
+        <v>10.56</v>
+      </c>
+      <c r="O32">
+        <v>127</v>
+      </c>
+      <c r="P32">
+        <v>108</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>189</v>
+      </c>
+      <c r="R32" s="1">
+        <v>43</v>
+      </c>
+      <c r="S32" s="1">
+        <v>11</v>
+      </c>
+      <c r="T32" s="1">
+        <v>186</v>
+      </c>
+      <c r="U32" s="1">
+        <v>-13.2</v>
+      </c>
+      <c r="V32" s="1">
+        <v>10.64</v>
+      </c>
+      <c r="W32" s="1">
+        <v>91</v>
+      </c>
+      <c r="X32" s="1">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z32">
+        <v>3</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI32">
+        <v>18</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK32">
+        <v>8</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT32" t="s">
         <v>70</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AU32" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AU61">
-    <sortCondition ref="F2:F61"/>
-    <sortCondition ref="B2:B61"/>
+  <sortState ref="A2:AU62">
+    <sortCondition ref="F2:F62"/>
+    <sortCondition ref="B2:B62"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
